--- a/docs/shrcore/shr-core-Participant-model.xlsx
+++ b/docs/shrcore/shr-core-Participant-model.xlsx
@@ -134,7 +134,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>An entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity.</t>
+    <t>An entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity. The participant is not necessarily the performer, and the role (ParticipationType), the ParticipationPeriod, and other details of the participation are by the Participation structure.</t>
   </si>
   <si>
     <t>shr-core-Participant-model.value[x]</t>
@@ -147,7 +147,7 @@
 </t>
   </si>
   <si>
-    <t>Choice of types representing an entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity.</t>
+    <t>Choice of types representing an entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity. The participant is not necessarily the performer, and the role (ParticipationType), the ParticipationPeriod, and other details of the participation are by the Participation structure.</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -315,7 +315,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="156.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
